--- a/poc/social-buzz/doc/TV프로그램_v1.1_20110926.xlsx
+++ b/poc/social-buzz/doc/TV프로그램_v1.1_20110926.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="18315" windowHeight="8040" tabRatio="433" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="405" windowWidth="18315" windowHeight="7980" tabRatio="433"/>
   </bookViews>
   <sheets>
     <sheet name="프로그램" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="403">
   <si>
     <t>program_id</t>
   </si>
@@ -1382,16 +1382,42 @@
     <t>weekly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AMERICA'S GOT TALENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 MINUTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG BROTHER 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE BIG BANG THEORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRIMINAL MINDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,6 +1463,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1479,8 +1513,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1566,20 +1603,21 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1881,11 +1919,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3368,7 +3406,7 @@
         <v>270</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>282</v>
@@ -3397,7 +3435,7 @@
         <v>272</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>282</v>
@@ -3426,7 +3464,7 @@
         <v>274</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>282</v>
@@ -3455,7 +3493,7 @@
         <v>276</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>282</v>
@@ -3484,7 +3522,7 @@
         <v>278</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>282</v>
@@ -3513,7 +3551,7 @@
         <v>280</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>282</v>
@@ -3553,9 +3591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D141" sqref="D141"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5205,7 +5243,7 @@
       <c r="G53" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="28">
         <f>(12356000+11849000)/100000000</f>
         <v>0.24204999999999999</v>
       </c>
@@ -5237,7 +5275,7 @@
       <c r="G54" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="29">
         <f>(7786000+6649000)/100000000</f>
         <v>0.14435000000000001</v>
       </c>
@@ -5269,7 +5307,7 @@
       <c r="G55" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="29">
         <f>9505000/100000000</f>
         <v>9.5049999999999996E-2</v>
       </c>
@@ -5301,7 +5339,7 @@
       <c r="G56" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="29">
         <f>8132000/100000000</f>
         <v>8.1320000000000003E-2</v>
       </c>
@@ -5333,7 +5371,7 @@
       <c r="G57" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="29">
         <f>6422000/100000000</f>
         <v>6.4219999999999999E-2</v>
       </c>
@@ -5365,7 +5403,7 @@
       <c r="G58" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="29">
         <f>6298000/100000000</f>
         <v>6.2979999999999994E-2</v>
       </c>
@@ -6113,7 +6151,7 @@
       <c r="G82" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="H82" s="29">
+      <c r="H82" s="28">
         <f>(13670000+14374000)/100000000</f>
         <v>0.28044000000000002</v>
       </c>
@@ -6145,7 +6183,7 @@
       <c r="G83" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H83" s="30">
+      <c r="H83" s="29">
         <f>(8782000+8221000)/100000000</f>
         <v>0.17002999999999999</v>
       </c>
@@ -6177,7 +6215,7 @@
       <c r="G84" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H84" s="30">
+      <c r="H84" s="29">
         <f>12480000/100000000</f>
         <v>0.12479999999999999</v>
       </c>
@@ -6209,7 +6247,7 @@
       <c r="G85" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H85" s="30">
+      <c r="H85" s="29">
         <f>10258000/100000000</f>
         <v>0.10258</v>
       </c>
@@ -6241,7 +6279,7 @@
       <c r="G86" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H86" s="30">
+      <c r="H86" s="29">
         <f>7776000/100000000</f>
         <v>7.7759999999999996E-2</v>
       </c>
@@ -6302,7 +6340,7 @@
       <c r="G88" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="H88" s="28">
+      <c r="H88" s="27">
         <v>0.26500000000000001</v>
       </c>
       <c r="I88" s="18">
@@ -6984,10 +7022,10 @@
       <c r="G110" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="H110" s="28">
+      <c r="H110" s="27">
         <v>0.25700000000000001</v>
       </c>
-      <c r="I110" s="28">
+      <c r="I110" s="27">
         <v>1</v>
       </c>
     </row>
@@ -7697,8 +7735,12 @@
       <c r="G133" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="H133" s="27"/>
-      <c r="I133" s="18"/>
+      <c r="H133" s="28">
+        <v>0.999</v>
+      </c>
+      <c r="I133" s="18">
+        <v>99</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="23" t="str">
@@ -7724,8 +7766,13 @@
       <c r="G134" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H134" s="24"/>
-      <c r="I134" s="13"/>
+      <c r="H134" s="30">
+        <f>19958000/100000000</f>
+        <v>0.19958000000000001</v>
+      </c>
+      <c r="I134" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="23" t="str">
@@ -7751,8 +7798,12 @@
       <c r="G135" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H135" s="24"/>
-      <c r="I135" s="16"/>
+      <c r="H135" s="30">
+        <v>0.999</v>
+      </c>
+      <c r="I135" s="16">
+        <v>99</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="str">
@@ -7778,8 +7829,12 @@
       <c r="G136" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H136" s="24"/>
-      <c r="I136" s="13"/>
+      <c r="H136" s="30">
+        <v>0.999</v>
+      </c>
+      <c r="I136" s="13">
+        <v>99</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="str">
@@ -7805,8 +7860,13 @@
       <c r="G137" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H137" s="24"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="30">
+        <f>(14939000+14298000)/100000000</f>
+        <v>0.29237000000000002</v>
+      </c>
+      <c r="I137" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="str">
@@ -7832,8 +7892,13 @@
       <c r="G138" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H138" s="24"/>
-      <c r="I138" s="16"/>
+      <c r="H138" s="30">
+        <f>14137000/100000000</f>
+        <v>0.14137</v>
+      </c>
+      <c r="I138" s="16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:I138">
